--- a/resources/RankModel.xlsx
+++ b/resources/RankModel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
   <si>
     <t>Level</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t>rewardOil</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -497,6 +509,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -667,8 +688,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:F134" tableType="xml" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" connectionId="2">
-  <autoFilter ref="A2:F134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:F135" tableType="xml" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" connectionId="2">
+  <autoFilter ref="A2:F135"/>
   <tableColumns count="6">
     <tableColumn id="1" uniqueName="name" name="name" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/ArrayOfRankModel/RankModel/name" xmlDataType="string"/>
@@ -978,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1035,34 +1056,34 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
+      <c r="A3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>17</v>
@@ -1076,13 +1097,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>17</v>
@@ -1096,13 +1117,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>17</v>
@@ -1116,13 +1137,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>17</v>
@@ -1136,13 +1157,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -1156,13 +1177,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
@@ -1176,13 +1197,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>17</v>
@@ -1196,13 +1217,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>17</v>
@@ -1216,13 +1237,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>17</v>
@@ -1236,13 +1257,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>17</v>
@@ -1256,13 +1277,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>17</v>
@@ -1276,13 +1297,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>17</v>
@@ -1296,13 +1317,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>17</v>
@@ -1316,13 +1337,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -1336,13 +1357,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>17</v>
@@ -1356,13 +1377,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>17</v>
@@ -1376,13 +1397,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>17</v>
@@ -1396,13 +1417,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>17</v>
@@ -1416,13 +1437,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>17</v>
@@ -1436,13 +1457,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>17</v>
@@ -1456,13 +1477,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>17</v>
@@ -1476,13 +1497,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>17</v>
@@ -1496,13 +1517,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>17</v>
@@ -1516,13 +1537,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>17</v>
@@ -1536,13 +1557,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>17</v>
@@ -1556,13 +1577,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>17</v>
@@ -1576,13 +1597,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>17</v>
@@ -1596,13 +1617,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>17</v>
@@ -1616,13 +1637,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>17</v>
@@ -1636,13 +1657,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>17</v>
@@ -1656,13 +1677,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>17</v>
@@ -1676,13 +1697,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>17</v>
@@ -1696,13 +1717,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>17</v>
@@ -1716,13 +1737,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>17</v>
@@ -1736,13 +1757,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>17</v>
@@ -1756,13 +1777,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>17</v>
@@ -1776,13 +1797,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>17</v>
@@ -1796,13 +1817,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>17</v>
@@ -1816,13 +1837,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C42" s="2">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>17</v>
@@ -1836,13 +1857,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="2">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>17</v>
@@ -1856,13 +1877,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>17</v>
@@ -1876,13 +1897,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="2">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>17</v>
@@ -1896,13 +1917,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C46" s="2">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>17</v>
@@ -1916,13 +1937,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="2">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>17</v>
@@ -1936,13 +1957,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="2">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>17</v>
@@ -1956,13 +1977,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="2">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>17</v>
@@ -1976,13 +1997,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>17</v>
@@ -1996,13 +2017,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>17</v>
@@ -2016,13 +2037,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>17</v>
@@ -2036,13 +2057,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C53" s="2">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>17</v>
@@ -2056,13 +2077,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="2">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>17</v>
@@ -2076,13 +2097,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="2">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>17</v>
@@ -2096,13 +2117,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>17</v>
@@ -2116,13 +2137,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="2">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>17</v>
@@ -2136,13 +2157,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="2">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>17</v>
@@ -2156,13 +2177,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="2">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>17</v>
@@ -2176,13 +2197,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="2">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>17</v>
@@ -2196,13 +2217,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="2">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>17</v>
@@ -2216,13 +2237,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="2">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>17</v>
@@ -2236,13 +2257,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="2">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>17</v>
@@ -2256,13 +2277,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="2">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>17</v>
@@ -2276,13 +2297,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>17</v>
@@ -2296,13 +2317,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>17</v>
@@ -2316,13 +2337,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>17</v>
@@ -2336,13 +2357,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C68" s="2">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>17</v>
@@ -2356,13 +2377,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="2">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>17</v>
@@ -2376,13 +2397,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="2">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>17</v>
@@ -2396,13 +2417,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="2">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>17</v>
@@ -2416,13 +2437,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>17</v>
@@ -2436,13 +2457,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="2">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>17</v>
@@ -2456,13 +2477,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>17</v>
@@ -2476,13 +2497,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>17</v>
@@ -2496,13 +2517,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="2">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>17</v>
@@ -2516,13 +2537,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="2">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>17</v>
@@ -2536,13 +2557,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="2">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>17</v>
@@ -2556,13 +2577,13 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="2">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>17</v>
@@ -2576,13 +2597,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="2">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>17</v>
@@ -2596,13 +2617,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="2">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>17</v>
@@ -2616,13 +2637,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="2">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>17</v>
@@ -2636,13 +2657,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="2">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>17</v>
@@ -2656,13 +2677,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="2">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>17</v>
@@ -2676,13 +2697,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="2">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>17</v>
@@ -2696,13 +2717,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="2">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>17</v>
@@ -2716,13 +2737,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="2">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>17</v>
@@ -2736,13 +2757,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="2">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>17</v>
@@ -2756,13 +2777,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="2">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>17</v>
@@ -2776,13 +2797,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="2">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>17</v>
@@ -2796,13 +2817,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="2">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>17</v>
@@ -2816,13 +2837,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C92" s="2">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>17</v>
@@ -2836,13 +2857,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="2">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>17</v>
@@ -2856,13 +2877,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="2">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>17</v>
@@ -2876,13 +2897,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="2">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>17</v>
@@ -2896,13 +2917,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="2">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>17</v>
@@ -2916,13 +2937,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="2">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>17</v>
@@ -2936,13 +2957,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="2">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>17</v>
@@ -2956,13 +2977,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="2">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>17</v>
@@ -2976,13 +2997,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="2">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>17</v>
@@ -2996,13 +3017,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="2">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>17</v>
@@ -3016,413 +3037,413 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="7">
+        <v>99</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>9900</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="20">
+        <v>0</v>
+      </c>
+      <c r="F102" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="7">
         <v>100</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="2">
+      <c r="B103" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
         <v>10000</v>
       </c>
-      <c r="D102" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="20">
-        <v>0</v>
-      </c>
-      <c r="F102" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="18" t="s">
+      <c r="D103" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="20">
+        <v>0</v>
+      </c>
+      <c r="F103" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="14">
-        <v>0</v>
-      </c>
-      <c r="D103" s="12" t="s">
+      <c r="C104" s="14">
+        <v>0</v>
+      </c>
+      <c r="D104" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E104" s="17">
         <v>300</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F104" s="17">
         <v>800</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="2">
-        <v>400</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E104" s="17">
-        <v>800</v>
-      </c>
-      <c r="F104" s="17">
-        <v>1500</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E105" s="17">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="F105" s="17">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E106" s="17">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="F106" s="17">
-        <v>7000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="18" t="s">
-        <v>4</v>
+      <c r="A107" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="2">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E107" s="17">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="F107" s="17">
-        <v>12000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" s="2">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108" s="17">
-        <v>5200</v>
+        <v>3300</v>
       </c>
       <c r="F108" s="17">
-        <v>20000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C109" s="2">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" s="17">
-        <v>8400</v>
+        <v>5200</v>
       </c>
       <c r="F109" s="17">
-        <v>23000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="2">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E110" s="17">
-        <v>13000</v>
+        <v>8400</v>
       </c>
       <c r="F110" s="17">
-        <v>26000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="2">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E111" s="17">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="F111" s="17">
-        <v>29000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C112" s="2">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E112" s="17">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="F112" s="17">
-        <v>34000</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" s="2">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E113" s="17">
-        <v>55000</v>
+        <v>34000</v>
       </c>
       <c r="F113" s="17">
-        <v>55000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114" s="2">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E114" s="17">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="F114" s="17">
-        <v>75000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" s="2">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E115" s="17">
-        <v>90000</v>
+        <v>75000</v>
       </c>
       <c r="F115" s="17">
-        <v>90000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C116" s="2">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E116" s="17">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F116" s="17">
-        <v>100000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="2">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E117" s="17">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="F117" s="17">
-        <v>120000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118" s="17">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="F118" s="17">
-        <v>140000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E119" s="17">
+        <v>140000</v>
+      </c>
+      <c r="F119" s="17">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="2">
         <v>3400</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D120" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E120" s="17">
         <v>160000</v>
       </c>
-      <c r="F119" s="17">
+      <c r="F120" s="17">
         <v>160000</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="19" t="s">
+    <row r="121" spans="1:6">
+      <c r="A121" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B121" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C121" s="2">
         <v>4000</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D121" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="17">
+      <c r="E121" s="17">
         <v>180000</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F121" s="17">
         <v>180000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="20">
-        <v>0</v>
-      </c>
-      <c r="F121" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C122" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>17</v>
@@ -3436,13 +3457,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C123" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>17</v>
@@ -3456,13 +3477,13 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C124" s="2">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>17</v>
@@ -3476,13 +3497,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C125" s="2">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>17</v>
@@ -3496,13 +3517,13 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C126" s="2">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>17</v>
@@ -3516,13 +3537,13 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C127" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>17</v>
@@ -3536,13 +3557,13 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C128" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>17</v>
@@ -3556,13 +3577,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C129" s="2">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>17</v>
@@ -3576,13 +3597,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C130" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>17</v>
@@ -3596,13 +3617,13 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C131" s="2">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>17</v>
@@ -3616,13 +3637,13 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="2">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>17</v>
@@ -3636,41 +3657,61 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C133" s="2">
+        <v>800000</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="20">
+        <v>0</v>
+      </c>
+      <c r="F133" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" s="2">
         <v>1600000</v>
       </c>
-      <c r="D133" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="20">
-        <v>0</v>
-      </c>
-      <c r="F133" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="8" t="s">
+      <c r="D134" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="20">
+        <v>0</v>
+      </c>
+      <c r="F134" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B135" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C135" s="6">
         <v>3000000</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="20">
-        <v>0</v>
-      </c>
-      <c r="F134" s="20">
+      <c r="D135" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="20">
+        <v>0</v>
+      </c>
+      <c r="F135" s="20">
         <v>0</v>
       </c>
     </row>

--- a/resources/RankModel.xlsx
+++ b/resources/RankModel.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RankModel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
